--- a/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H2">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>400.4077964285393</v>
+        <v>911.0021034881091</v>
       </c>
       <c r="R2">
-        <v>400.4077964285393</v>
+        <v>8199.018931392982</v>
       </c>
       <c r="S2">
-        <v>0.003979696603117277</v>
+        <v>0.008503764265841563</v>
       </c>
       <c r="T2">
-        <v>0.003979696603117277</v>
+        <v>0.008503764265841561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H3">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>11071.42281141928</v>
+        <v>13032.95694535483</v>
       </c>
       <c r="R3">
-        <v>11071.42281141928</v>
+        <v>117296.6125081935</v>
       </c>
       <c r="S3">
-        <v>0.1100400745122453</v>
+        <v>0.1216563530707661</v>
       </c>
       <c r="T3">
-        <v>0.1100400745122453</v>
+        <v>0.1216563530707661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H4">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>1684.710066867377</v>
+        <v>1993.6287340276</v>
       </c>
       <c r="R4">
-        <v>1684.710066867377</v>
+        <v>17942.6586062484</v>
       </c>
       <c r="S4">
-        <v>0.01674451644086845</v>
+        <v>0.01860956052995562</v>
       </c>
       <c r="T4">
-        <v>0.01674451644086845</v>
+        <v>0.01860956052995561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H5">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>2559.346610692862</v>
+        <v>5011.387553678806</v>
       </c>
       <c r="R5">
-        <v>2559.346610692862</v>
+        <v>45102.48798310925</v>
       </c>
       <c r="S5">
-        <v>0.02543762410128768</v>
+        <v>0.04677888035393898</v>
       </c>
       <c r="T5">
-        <v>0.02543762410128768</v>
+        <v>0.04677888035393898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H6">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>70766.87492275295</v>
+        <v>71693.7951882956</v>
       </c>
       <c r="R6">
-        <v>70766.87492275295</v>
+        <v>645244.1566946603</v>
       </c>
       <c r="S6">
-        <v>0.7033596604644727</v>
+        <v>0.669226921947222</v>
       </c>
       <c r="T6">
-        <v>0.7033596604644727</v>
+        <v>0.669226921947222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H7">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>10768.41419696653</v>
+        <v>10966.87503366753</v>
       </c>
       <c r="R7">
-        <v>10768.41419696653</v>
+        <v>98701.87530300779</v>
       </c>
       <c r="S7">
-        <v>0.1070284389636651</v>
+        <v>0.1023704771505714</v>
       </c>
       <c r="T7">
-        <v>0.1070284389636651</v>
+        <v>0.1023704771505714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H8">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>102.3033145356412</v>
+        <v>201.1841554027309</v>
       </c>
       <c r="R8">
-        <v>102.3033145356412</v>
+        <v>1810.657398624578</v>
       </c>
       <c r="S8">
-        <v>0.001016803761007164</v>
+        <v>0.001877956840073958</v>
       </c>
       <c r="T8">
-        <v>0.001016803761007164</v>
+        <v>0.001877956840073958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H9">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>2828.724266451295</v>
+        <v>2878.176049662207</v>
       </c>
       <c r="R9">
-        <v>2828.724266451295</v>
+        <v>25903.58444695987</v>
       </c>
       <c r="S9">
-        <v>0.02811499789655256</v>
+        <v>0.02686638213919116</v>
       </c>
       <c r="T9">
-        <v>0.02811499789655256</v>
+        <v>0.02686638213919116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H10">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>430.4397302185247</v>
+        <v>440.2695795171603</v>
       </c>
       <c r="R10">
-        <v>430.4397302185247</v>
+        <v>3962.426215654442</v>
       </c>
       <c r="S10">
-        <v>0.004278187256783602</v>
+        <v>0.00410970370243935</v>
       </c>
       <c r="T10">
-        <v>0.004278187256783602</v>
+        <v>0.00410970370243935</v>
       </c>
     </row>
   </sheetData>
